--- a/Categories_Master.xlsx
+++ b/Categories_Master.xlsx
@@ -19,7 +19,6 @@
     <sheet name="Categorization" sheetId="1" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Master_List!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Tags!$A$2:$A$38</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="156">
   <si>
     <t>Advanced Trig</t>
   </si>
@@ -510,16 +509,7 @@
     <t>Trig</t>
   </si>
   <si>
-    <t>Bryant</t>
-  </si>
-  <si>
-    <t># Questions</t>
-  </si>
-  <si>
-    <t>Assigned</t>
-  </si>
-  <si>
-    <t>Total</t>
+    <t>Plug In Numbers</t>
   </si>
 </sst>
 </file>
@@ -538,16 +528,19 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -616,7 +609,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -657,36 +650,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -702,7 +665,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -731,11 +694,6 @@
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1103,19 +1061,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C481"/>
+  <dimension ref="A1:D841"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>140</v>
       </c>
@@ -1125,8 +1084,9 @@
       <c r="C1" s="17" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42826</v>
       </c>
@@ -1137,7 +1097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42826</v>
       </c>
@@ -1148,7 +1108,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>42826</v>
       </c>
@@ -1156,10 +1116,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>42826</v>
       </c>
@@ -1167,10 +1127,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>42826</v>
       </c>
@@ -1181,7 +1141,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>42826</v>
       </c>
@@ -1189,10 +1149,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>42826</v>
       </c>
@@ -1203,7 +1163,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>42826</v>
       </c>
@@ -1211,10 +1171,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>42826</v>
       </c>
@@ -1225,7 +1185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>42826</v>
       </c>
@@ -1236,7 +1196,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>42826</v>
       </c>
@@ -1247,7 +1207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>42826</v>
       </c>
@@ -1255,10 +1215,10 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>42826</v>
       </c>
@@ -1269,7 +1229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>42826</v>
       </c>
@@ -1280,7 +1240,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>42826</v>
       </c>
@@ -1321,7 +1281,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1442,7 +1402,7 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1585,7 +1545,7 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2377,7 +2337,7 @@
         <v>54</v>
       </c>
       <c r="C115" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -2542,7 +2502,7 @@
         <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -2586,7 +2546,7 @@
         <v>13</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -2894,7 +2854,7 @@
         <v>41</v>
       </c>
       <c r="C162" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -3059,7 +3019,7 @@
         <v>56</v>
       </c>
       <c r="C177" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -3290,7 +3250,7 @@
         <v>17</v>
       </c>
       <c r="C198" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -3572,11 +3532,11 @@
       <c r="A224" s="2">
         <v>42522</v>
       </c>
-      <c r="B224" s="3">
+      <c r="B224">
         <v>43</v>
       </c>
       <c r="C224" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -3807,7 +3767,7 @@
         <v>4</v>
       </c>
       <c r="C245" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -3994,7 +3954,7 @@
         <v>21</v>
       </c>
       <c r="C262" t="s">
-        <v>7</v>
+        <v>147</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -4456,7 +4416,7 @@
         <v>3</v>
       </c>
       <c r="C304" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -4533,7 +4493,7 @@
         <v>10</v>
       </c>
       <c r="C311" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -4819,7 +4779,7 @@
         <v>36</v>
       </c>
       <c r="C337" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
@@ -5028,7 +4988,7 @@
         <v>55</v>
       </c>
       <c r="C356" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
@@ -5281,7 +5241,7 @@
         <v>18</v>
       </c>
       <c r="C379" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
@@ -5347,7 +5307,7 @@
         <v>24</v>
       </c>
       <c r="C385" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
@@ -5369,7 +5329,7 @@
         <v>26</v>
       </c>
       <c r="C387" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
@@ -5435,7 +5395,7 @@
         <v>32</v>
       </c>
       <c r="C393" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
@@ -5501,7 +5461,7 @@
         <v>38</v>
       </c>
       <c r="C399" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
@@ -5556,7 +5516,7 @@
         <v>43</v>
       </c>
       <c r="C404" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
@@ -5600,7 +5560,7 @@
         <v>47</v>
       </c>
       <c r="C408" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
@@ -6271,7 +6231,7 @@
         <v>48</v>
       </c>
       <c r="C469" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
@@ -6406,11 +6366,2890 @@
         <v>11</v>
       </c>
     </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A482" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B482" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A483" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B483" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A484" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B484" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A485" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B485" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A486" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B486" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A487" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B487" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A488" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B488" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A489" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B489" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A490" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B490" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A491" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B491" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A492" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B492" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A493" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B493" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A494" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B494" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A495" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B495" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A496" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B496" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A497" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B497" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A498" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B498" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A499" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B499" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A500" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B500" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A501" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B501" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A502" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B502" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A503" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B503" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A504" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B504" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A505" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B505" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A506" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B506" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A507" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B507" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A508" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B508" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A509" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B509" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A510" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B510" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A511" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B511" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A512" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B512" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A513" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B513" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B514" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B515" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A516" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B516" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B517" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B518" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A519" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B519" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B520" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B521" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A522" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B522" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B523" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B524" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A525" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B525" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B526" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B527" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A528" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B528" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A529" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B529" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A530" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B530" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A531" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B531" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A532" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B532" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A533" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B533" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A534" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B534" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A535" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B535" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A536" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B536" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A537" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B537" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A538" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B538" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A539" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B539" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A540" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B540" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A541" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B541" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A542" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B542" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A543" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B543" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A544" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B544" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A545" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B545" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A546" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B546" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A547" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B547" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A548" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B548" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A549" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B549" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A550" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B550" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A551" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B551" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A552" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B552" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A553" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B553" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A554" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B554" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A555" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B555" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A556" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B556" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A557" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B557" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A558" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B558" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A559" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B559" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A560" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B560" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A561" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B561" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A562" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B562" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A563" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B563" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A564" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B564" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A565" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B565" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A566" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B566" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A567" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B567" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A568" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B568" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A569" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B569" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A570" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B570" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A571" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B571" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A572" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B572" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A573" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B573" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A574" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B574" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A575" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B575" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A576" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B576" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A577" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B577" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A578" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B578" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A579" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B579" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A580" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B580" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A581" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B581" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A582" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B582" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A583" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B583" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A584" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B584" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A585" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B585" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A586" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B586" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A587" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B587" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A588" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B588" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A589" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B589" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A590" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B590" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A591" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B591" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A592" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B592" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A593" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B593" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A594" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B594" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A595" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B595" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A596" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B596" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A597" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B597" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A598" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B598" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A599" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B599" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A600" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B600" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A601" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B601" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A602" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B602" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A603" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B603" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A604" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B604" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A605" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B605" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A606" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B606" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A607" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B607" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A608" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B608" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A609" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B609" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A610" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B610" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A611" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B611" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A612" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B612" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A613" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B613" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A614" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B614" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A615" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B615" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A616" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B616" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A617" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B617" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A618" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B618" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A619" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B619" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A620" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B620" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A621" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B621" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A622" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B622" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A623" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B623" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A624" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B624" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A625" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B625" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A626" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B626" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A627" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B627" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A628" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B628" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A629" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B629" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A630" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B630" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A631" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B631" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A632" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B632" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A633" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B633" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A634" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B634" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A635" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B635" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A636" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B636" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A637" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B637" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A638" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B638" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A639" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B639" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A640" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B640" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A641" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B641" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A642" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B642" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A643" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B643" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A644" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B644" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A645" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B645" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A646" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B646" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A647" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B647" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A648" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B648" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A649" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B649" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A650" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B650" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A651" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B651" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A652" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B652" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A653" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B653" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A654" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B654" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A655" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B655" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A656" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B656" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A657" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B657" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A658" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B658" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A659" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B659" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A660" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B660" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A661" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B661" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A662" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B662" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A663" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B663" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A664" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B664" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A665" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B665" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A666" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B666" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A667" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B667" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A668" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B668" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A669" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B669" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A670" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B670" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A671" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B671" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A672" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B672" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A673" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B673" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A674" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B674" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A675" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B675" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A676" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B676" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A677" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B677" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A678" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B678" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A679" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B679" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A680" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B680" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A681" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B681" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A682" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B682" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A683" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B683" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A684" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B684" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A685" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B685" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A686" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B686" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A687" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B687" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A688" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B688" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A689" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B689" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A690" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B690" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A691" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B691" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A692" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B692" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A693" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B693" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A694" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B694" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A695" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B695" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A696" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B696" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A697" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B697" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A698" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B698" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A699" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B699" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A700" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B700" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A701" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B701" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A702" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B702" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A703" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B703" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A704" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B704" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A705" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B705" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A706" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B706" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A707" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B707" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A708" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B708" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A709" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B709" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A710" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B710" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A711" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B711" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A712" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B712" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A713" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B713" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A714" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B714" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A715" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B715" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A716" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B716" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A717" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B717" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A718" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B718" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A719" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B719" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A720" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B720" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A721" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B721" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A722" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B722" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A723" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B723" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A724" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B724" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A725" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B725" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A726" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B726" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A727" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B727" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A728" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B728" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A729" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B729" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A730" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B730" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A731" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B731" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A732" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B732" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A733" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B733" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A734" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B734" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A735" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B735" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A736" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B736" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A737" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B737" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A738" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B738" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A739" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B739" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A740" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B740" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A741" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B741" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A742" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B742" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A743" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B743" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A744" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B744" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A745" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B745" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A746" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B746" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A747" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B747" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A748" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B748" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A749" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B749" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A750" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B750" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A751" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B751" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A752" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B752" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A753" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B753" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A754" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B754" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A755" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B755" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A756" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B756" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A757" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B757" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A758" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B758" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A759" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B759" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A760" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B760" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A761" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B761" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A762" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B762" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A763" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B763" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A764" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B764" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A765" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B765" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A766" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B766" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A767" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B767" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A768" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B768" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A769" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B769" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A770" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B770" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A771" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B771" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A772" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B772" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A773" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B773" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A774" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B774" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A775" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B775" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A776" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B776" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A777" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B777" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A778" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B778" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A779" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B779" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A780" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B780" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A781" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B781" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A782" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B782" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A783" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B783" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A784" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B784" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A785" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B785" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A786" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B786" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A787" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B787" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A788" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B788" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A789" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B789" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A790" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B790" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A791" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B791" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A792" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B792" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A793" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B793" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A794" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B794" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A795" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B795" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A796" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B796" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A797" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B797" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A798" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B798" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A799" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B799" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A800" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B800" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A801" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B801" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A802" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B802" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A803" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B803" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A804" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B804" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A805" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B805" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A806" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B806" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A807" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B807" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A808" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B808" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A809" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B809" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A810" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B810" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A811" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B811" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A812" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B812" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A813" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B813" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A814" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B814" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A815" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B815" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A816" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B816" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A817" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B817" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A818" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B818" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A819" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B819" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A820" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B820" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A821" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B821" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A822" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B822" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A823" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B823" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A824" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B824" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A825" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B825" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A826" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B826" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A827" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B827" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A828" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B828" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A829" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B829" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A830" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B830" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A831" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B831" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A832" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B832" s="3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A833" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B833" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A834" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B834" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A835" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B835" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A836" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B836" s="3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A837" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B837" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A838" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B838" s="3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A839" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B839" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A840" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B840" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A841" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B841" s="3">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E62:E91 F305:F334 F429:F458 D187:D216 K305:K334 M305:M334 D429:D458 E246:E271 D272:D275 G246:G271 F272:F275 C2:C481">
-      <formula1>$Q$5:$Q$41</formula1>
+    <dataValidation type="list" allowBlank="1" sqref="I305:I334 E246:E271 K305:K334 C2:D481">
+      <formula1>$O$5:$O$41</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6420,10 +9259,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X481"/>
+  <dimension ref="A1:S481"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="A126" sqref="A126:A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6449,7 +9288,7 @@
     <col min="35" max="35" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>140</v>
       </c>
@@ -6480,11 +9319,11 @@
         <v>152</v>
       </c>
       <c r="L1" s="23"/>
-      <c r="X1" s="22" t="s">
+      <c r="S1" s="22" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42826</v>
       </c>
@@ -6515,20 +9354,8 @@
         <f t="array" ref="K2">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I2)*(Master_List!$B$2:$B$5000=CHECKLIST!J2),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="N2" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42826</v>
       </c>
@@ -6559,25 +9386,8 @@
         <f t="array" ref="K3">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I3)*(Master_List!$B$2:$B$5000=CHECKLIST!J3),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="28">
-        <f>COUNTIF(A:K,N3)</f>
-        <v>11</v>
-      </c>
-      <c r="P3" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q3">
-        <f>SUM(O3:O8)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>42826</v>
       </c>
@@ -6586,7 +9396,7 @@
       </c>
       <c r="C4" t="str">
         <f t="array" ref="C4">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!A4)*(Master_List!$B$2:$B$5000=CHECKLIST!B4),0),3)</f>
-        <v>Solving Algebra</v>
+        <v>Exp Rules</v>
       </c>
       <c r="E4" s="2">
         <v>42887</v>
@@ -6608,21 +9418,8 @@
         <f t="array" ref="K4">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I4)*(Master_List!$B$2:$B$5000=CHECKLIST!J4),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M4" t="s">
-        <v>58</v>
-      </c>
-      <c r="N4" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" s="28">
-        <f t="shared" ref="O4:O30" si="0">COUNTIF(A:K,N4)</f>
-        <v>13</v>
-      </c>
-      <c r="P4" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>42826</v>
       </c>
@@ -6631,7 +9428,7 @@
       </c>
       <c r="C5" t="str">
         <f t="array" ref="C5">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!A5)*(Master_List!$B$2:$B$5000=CHECKLIST!B5),0),3)</f>
-        <v>Solving Algebra</v>
+        <v>Plug In Numbers</v>
       </c>
       <c r="E5" s="2">
         <v>42887</v>
@@ -6653,21 +9450,8 @@
         <f t="array" ref="K5">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I5)*(Master_List!$B$2:$B$5000=CHECKLIST!J5),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M5" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" s="28">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="P5" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>42826</v>
       </c>
@@ -6698,21 +9482,8 @@
         <f t="array" ref="K6">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I6)*(Master_List!$B$2:$B$5000=CHECKLIST!J6),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M6" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="28">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="P6" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>42826</v>
       </c>
@@ -6721,7 +9492,7 @@
       </c>
       <c r="C7" t="str">
         <f t="array" ref="C7">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!A7)*(Master_List!$B$2:$B$5000=CHECKLIST!B7),0),3)</f>
-        <v>Word Problems</v>
+        <v>Equation Set Up</v>
       </c>
       <c r="E7" s="2">
         <v>42887</v>
@@ -6743,21 +9514,8 @@
         <f t="array" ref="K7">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I7)*(Master_List!$B$2:$B$5000=CHECKLIST!J7),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M7" t="s">
-        <v>58</v>
-      </c>
-      <c r="N7" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" s="28">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="P7" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>42826</v>
       </c>
@@ -6788,21 +9546,8 @@
         <f t="array" ref="K8">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I8)*(Master_List!$B$2:$B$5000=CHECKLIST!J8),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M8" t="s">
-        <v>58</v>
-      </c>
-      <c r="N8" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="28">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="P8" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>42826</v>
       </c>
@@ -6811,7 +9556,7 @@
       </c>
       <c r="C9" t="str">
         <f t="array" ref="C9">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!A9)*(Master_List!$B$2:$B$5000=CHECKLIST!B9),0),3)</f>
-        <v>Solving Algebra</v>
+        <v>Plug In Numbers</v>
       </c>
       <c r="E9" s="2">
         <v>42887</v>
@@ -6833,25 +9578,8 @@
         <f t="array" ref="K9">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I9)*(Master_List!$B$2:$B$5000=CHECKLIST!J9),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="O9" s="29">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="P9" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q9">
-        <f>SUM(O9:O15)</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>42826</v>
       </c>
@@ -6882,21 +9610,8 @@
         <f t="array" ref="K10">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I10)*(Master_List!$B$2:$B$5000=CHECKLIST!J10),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M10" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="O10" s="29">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="P10" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>42826</v>
       </c>
@@ -6927,21 +9642,8 @@
         <f t="array" ref="K11">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I11)*(Master_List!$B$2:$B$5000=CHECKLIST!J11),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M11" t="s">
-        <v>58</v>
-      </c>
-      <c r="N11" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" s="29">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="P11" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>42826</v>
       </c>
@@ -6972,21 +9674,8 @@
         <f t="array" ref="K12">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I12)*(Master_List!$B$2:$B$5000=CHECKLIST!J12),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M12" t="s">
-        <v>58</v>
-      </c>
-      <c r="N12" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="O12" s="29">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="P12" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>42826</v>
       </c>
@@ -6995,7 +9684,7 @@
       </c>
       <c r="C13" t="str">
         <f t="array" ref="C13">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!A13)*(Master_List!$B$2:$B$5000=CHECKLIST!B13),0),3)</f>
-        <v>Solving Algebra</v>
+        <v>Equation Set Up</v>
       </c>
       <c r="E13" s="2">
         <v>42887</v>
@@ -7017,21 +9706,8 @@
         <f t="array" ref="K13">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I13)*(Master_List!$B$2:$B$5000=CHECKLIST!J13),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N13" s="29" t="s">
-        <v>147</v>
-      </c>
-      <c r="O13" s="29">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="P13" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>42826</v>
       </c>
@@ -7062,21 +9738,8 @@
         <f t="array" ref="K14">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I14)*(Master_List!$B$2:$B$5000=CHECKLIST!J14),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M14" t="s">
-        <v>58</v>
-      </c>
-      <c r="N14" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="O14" s="29">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="P14" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>42826</v>
       </c>
@@ -7107,21 +9770,8 @@
         <f t="array" ref="K15">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I15)*(Master_List!$B$2:$B$5000=CHECKLIST!J15),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M15" t="s">
-        <v>58</v>
-      </c>
-      <c r="N15" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="O15" s="29">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P15" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>42826</v>
       </c>
@@ -7152,25 +9802,8 @@
         <f t="array" ref="K16">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I16)*(Master_List!$B$2:$B$5000=CHECKLIST!J16),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M16" t="s">
-        <v>58</v>
-      </c>
-      <c r="N16" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="O16" s="30">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="P16" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q16">
-        <f>SUM(O16:O18)</f>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>42826</v>
       </c>
@@ -7201,21 +9834,8 @@
         <f t="array" ref="K17">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I17)*(Master_List!$B$2:$B$5000=CHECKLIST!J17),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M17" t="s">
-        <v>58</v>
-      </c>
-      <c r="N17" s="30" t="s">
-        <v>145</v>
-      </c>
-      <c r="O17" s="30">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="P17" s="30" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>42826</v>
       </c>
@@ -7246,21 +9866,8 @@
         <f t="array" ref="K18">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I18)*(Master_List!$B$2:$B$5000=CHECKLIST!J18),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M18" t="s">
-        <v>58</v>
-      </c>
-      <c r="N18" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="O18" s="30">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="P18" s="30" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>42826</v>
       </c>
@@ -7269,7 +9876,7 @@
       </c>
       <c r="C19" t="str">
         <f t="array" ref="C19">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!A19)*(Master_List!$B$2:$B$5000=CHECKLIST!B19),0),3)</f>
-        <v>Equation Set Up</v>
+        <v>Plug In Numbers</v>
       </c>
       <c r="E19" s="2">
         <v>42887</v>
@@ -7291,25 +9898,8 @@
         <f t="array" ref="K19">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I19)*(Master_List!$B$2:$B$5000=CHECKLIST!J19),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M19" t="s">
-        <v>58</v>
-      </c>
-      <c r="N19" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="O19" s="31">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="P19" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q19">
-        <f>SUM(O19:O25)</f>
-        <v>107</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>42826</v>
       </c>
@@ -7340,21 +9930,8 @@
         <f t="array" ref="K20">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I20)*(Master_List!$B$2:$B$5000=CHECKLIST!J20),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M20" t="s">
-        <v>58</v>
-      </c>
-      <c r="N20" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="O20" s="31">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="P20" s="31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>42826</v>
       </c>
@@ -7385,21 +9962,8 @@
         <f t="array" ref="K21">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I21)*(Master_List!$B$2:$B$5000=CHECKLIST!J21),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M21" t="s">
-        <v>58</v>
-      </c>
-      <c r="N21" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="O21" s="31">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="P21" s="31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>42826</v>
       </c>
@@ -7430,21 +9994,8 @@
         <f t="array" ref="K22">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I22)*(Master_List!$B$2:$B$5000=CHECKLIST!J22),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M22" t="s">
-        <v>58</v>
-      </c>
-      <c r="N22" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="O22" s="31">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="P22" s="31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>42826</v>
       </c>
@@ -7475,21 +10026,8 @@
         <f t="array" ref="K23">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I23)*(Master_List!$B$2:$B$5000=CHECKLIST!J23),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M23" t="s">
-        <v>58</v>
-      </c>
-      <c r="N23" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="O23" s="31">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="P23" s="31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>42826</v>
       </c>
@@ -7520,21 +10058,8 @@
         <f t="array" ref="K24">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I24)*(Master_List!$B$2:$B$5000=CHECKLIST!J24),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M24" t="s">
-        <v>58</v>
-      </c>
-      <c r="N24" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="O24" s="31">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="P24" s="31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>42826</v>
       </c>
@@ -7565,21 +10090,8 @@
         <f t="array" ref="K25">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I25)*(Master_List!$B$2:$B$5000=CHECKLIST!J25),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M25" t="s">
-        <v>58</v>
-      </c>
-      <c r="N25" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="O25" s="31">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="P25" s="31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>42826</v>
       </c>
@@ -7610,25 +10122,8 @@
         <f t="array" ref="K26">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I26)*(Master_List!$B$2:$B$5000=CHECKLIST!J26),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M26" t="s">
-        <v>58</v>
-      </c>
-      <c r="N26" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="O26" s="32">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="P26" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q26">
-        <f>SUM(O26:O30)</f>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>42826</v>
       </c>
@@ -7659,21 +10154,8 @@
         <f t="array" ref="K27">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I27)*(Master_List!$B$2:$B$5000=CHECKLIST!J27),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M27" t="s">
-        <v>58</v>
-      </c>
-      <c r="N27" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="O27" s="32">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="P27" s="32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>42826</v>
       </c>
@@ -7704,21 +10186,8 @@
         <f t="array" ref="K28">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I28)*(Master_List!$B$2:$B$5000=CHECKLIST!J28),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M28" t="s">
-        <v>58</v>
-      </c>
-      <c r="N28" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="O28" s="32">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="P28" s="32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>42826</v>
       </c>
@@ -7749,21 +10218,8 @@
         <f t="array" ref="K29">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I29)*(Master_List!$B$2:$B$5000=CHECKLIST!J29),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M29" t="s">
-        <v>58</v>
-      </c>
-      <c r="N29" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="O29" s="32">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="P29" s="32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>42826</v>
       </c>
@@ -7772,7 +10228,7 @@
       </c>
       <c r="C30" t="str">
         <f t="array" ref="C30">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!A30)*(Master_List!$B$2:$B$5000=CHECKLIST!B30),0),3)</f>
-        <v>Word Problems</v>
+        <v>Plug In Numbers</v>
       </c>
       <c r="E30" s="2">
         <v>42887</v>
@@ -7794,21 +10250,8 @@
         <f t="array" ref="K30">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I30)*(Master_List!$B$2:$B$5000=CHECKLIST!J30),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="M30" t="s">
-        <v>58</v>
-      </c>
-      <c r="N30" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="O30" s="32">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="P30" s="32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>42826</v>
       </c>
@@ -7840,7 +10283,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>42826</v>
       </c>
@@ -7871,14 +10314,6 @@
         <f t="array" ref="K32">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I32)*(Master_List!$B$2:$B$5000=CHECKLIST!J32),0),3)</f>
         <v>#N/A</v>
       </c>
-      <c r="O32">
-        <f>SUM(O2:O30)</f>
-        <v>480</v>
-      </c>
-      <c r="Q32">
-        <f>SUM(Q3:Q30)</f>
-        <v>480</v>
-      </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
@@ -8209,7 +10644,7 @@
       </c>
       <c r="C43" t="str">
         <f t="array" ref="C43">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!A43)*(Master_List!$B$2:$B$5000=CHECKLIST!B43),0),3)</f>
-        <v>Equation Set Up</v>
+        <v>Plug In Numbers</v>
       </c>
       <c r="E43" s="2">
         <v>42887</v>
@@ -8603,7 +11038,7 @@
       </c>
       <c r="G55" t="str">
         <f t="array" ref="G55">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!E55)*(Master_List!$B$2:$B$5000=CHECKLIST!F55),0),3)</f>
-        <v>Word Problems</v>
+        <v>Data Interpretation</v>
       </c>
       <c r="I55" s="2">
         <v>43070</v>
@@ -9009,7 +11444,7 @@
       </c>
       <c r="K69" t="str">
         <f t="array" ref="K69">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I69)*(Master_List!$B$2:$B$5000=CHECKLIST!J69),0),3)</f>
-        <v>Word Problems</v>
+        <v>Data Interpretation</v>
       </c>
       <c r="M69" s="2"/>
     </row>
@@ -9154,7 +11589,7 @@
       </c>
       <c r="C74" t="str">
         <f t="array" ref="C74">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!A74)*(Master_List!$B$2:$B$5000=CHECKLIST!B74),0),3)</f>
-        <v>Solving Algebra</v>
+        <v>Plug In Numbers</v>
       </c>
       <c r="E74" s="2">
         <v>42522</v>
@@ -9286,7 +11721,7 @@
       </c>
       <c r="C78" t="str">
         <f t="array" ref="C78">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!A78)*(Master_List!$B$2:$B$5000=CHECKLIST!B78),0),3)</f>
-        <v>Solving Algebra</v>
+        <v>Plug In Numbers</v>
       </c>
       <c r="E78" s="2">
         <v>42522</v>
@@ -9428,7 +11863,7 @@
       </c>
       <c r="G82" t="str">
         <f t="array" ref="G82">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!E82)*(Master_List!$B$2:$B$5000=CHECKLIST!F82),0),3)</f>
-        <v>Solving Algebra</v>
+        <v>Plug In Numbers</v>
       </c>
       <c r="I82" s="2">
         <v>42705</v>
@@ -9570,7 +12005,7 @@
       </c>
       <c r="K86" t="str">
         <f t="array" ref="K86">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I86)*(Master_List!$B$2:$B$5000=CHECKLIST!J86),0),3)</f>
-        <v>Geo Rules</v>
+        <v>Lines-graph_solve</v>
       </c>
       <c r="M86" s="2"/>
     </row>
@@ -10210,7 +12645,7 @@
       </c>
       <c r="C106" t="str">
         <f t="array" ref="C106">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!A106)*(Master_List!$B$2:$B$5000=CHECKLIST!B106),0),3)</f>
-        <v>Simplify</v>
+        <v>Foil_Factor_Multiple</v>
       </c>
       <c r="E106" s="2">
         <v>42522</v>
@@ -10286,7 +12721,7 @@
       </c>
       <c r="G108" t="str">
         <f t="array" ref="G108">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!E108)*(Master_List!$B$2:$B$5000=CHECKLIST!F108),0),3)</f>
-        <v>Equation Set Up</v>
+        <v>Solving Algebra</v>
       </c>
       <c r="I108" s="2">
         <v>42705</v>
@@ -10705,7 +13140,7 @@
       </c>
       <c r="C121" t="str">
         <f t="array" ref="C121">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!A121)*(Master_List!$B$2:$B$5000=CHECKLIST!B121),0),3)</f>
-        <v>Equation Set Up</v>
+        <v>Plug In Numbers</v>
       </c>
       <c r="E121" s="2">
         <v>42522</v>
@@ -11004,7 +13439,7 @@
       </c>
       <c r="C132" t="str">
         <f t="array" ref="C132">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!A132)*(Master_List!$B$2:$B$5000=CHECKLIST!B132),0),3)</f>
-        <v>Solving Algebra</v>
+        <v>Plug In Numbers</v>
       </c>
       <c r="E132" s="2">
         <v>42156</v>
@@ -11235,7 +13670,7 @@
       </c>
       <c r="C139" t="str">
         <f t="array" ref="C139">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!A139)*(Master_List!$B$2:$B$5000=CHECKLIST!B139),0),3)</f>
-        <v>Geo Rules</v>
+        <v>Vocab</v>
       </c>
       <c r="E139" s="2">
         <v>42156</v>
@@ -11509,7 +13944,7 @@
       </c>
       <c r="G147" t="str">
         <f t="array" ref="G147">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!E147)*(Master_List!$B$2:$B$5000=CHECKLIST!F147),0),3)</f>
-        <v>Solving Algebra</v>
+        <v>Plug In Numbers</v>
       </c>
       <c r="I147" s="2">
         <v>42339</v>
@@ -11707,7 +14142,7 @@
       </c>
       <c r="G153" t="str">
         <f t="array" ref="G153">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!E153)*(Master_List!$B$2:$B$5000=CHECKLIST!F153),0),3)</f>
-        <v>Geo Rules</v>
+        <v>Circles</v>
       </c>
       <c r="I153" s="2">
         <v>42339</v>
@@ -11773,7 +14208,7 @@
       </c>
       <c r="G155" t="str">
         <f t="array" ref="G155">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!E155)*(Master_List!$B$2:$B$5000=CHECKLIST!F155),0),3)</f>
-        <v>Equation Set Up</v>
+        <v>Plug In Numbers</v>
       </c>
       <c r="I155" s="2">
         <v>42339</v>
@@ -11971,7 +14406,7 @@
       </c>
       <c r="G161" t="str">
         <f t="array" ref="G161">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!E161)*(Master_List!$B$2:$B$5000=CHECKLIST!F161),0),3)</f>
-        <v>Equation Set Up</v>
+        <v>Perimeter_Area_Volume</v>
       </c>
       <c r="I161" s="2">
         <v>42339</v>
@@ -12093,7 +14528,7 @@
       </c>
       <c r="C165" t="str">
         <f t="array" ref="C165">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!A165)*(Master_List!$B$2:$B$5000=CHECKLIST!B165),0),3)</f>
-        <v>Simplify</v>
+        <v>Exp Rules</v>
       </c>
       <c r="E165" s="2">
         <v>42156</v>
@@ -12169,7 +14604,7 @@
       </c>
       <c r="G167" t="str">
         <f t="array" ref="G167">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!E167)*(Master_List!$B$2:$B$5000=CHECKLIST!F167),0),3)</f>
-        <v>Solving Algebra</v>
+        <v>Plug In Numbers</v>
       </c>
       <c r="I167" s="2">
         <v>42339</v>
@@ -12334,7 +14769,7 @@
       </c>
       <c r="G172" t="str">
         <f t="array" ref="G172">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!E172)*(Master_List!$B$2:$B$5000=CHECKLIST!F172),0),3)</f>
-        <v>Word Problems</v>
+        <v>Equation Set Up</v>
       </c>
       <c r="I172" s="2">
         <v>42339</v>
@@ -12466,7 +14901,7 @@
       </c>
       <c r="G176" t="str">
         <f t="array" ref="G176">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!E176)*(Master_List!$B$2:$B$5000=CHECKLIST!F176),0),3)</f>
-        <v>Simplify</v>
+        <v>Exp Rules</v>
       </c>
       <c r="I176" s="2">
         <v>42339</v>
@@ -12509,7 +14944,7 @@
       </c>
       <c r="K177" t="str">
         <f t="array" ref="K177">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!I177)*(Master_List!$B$2:$B$5000=CHECKLIST!J177),0),3)</f>
-        <v>Equation Set Up</v>
+        <v>Plug In Numbers</v>
       </c>
       <c r="M177" s="2"/>
     </row>
@@ -12720,7 +15155,7 @@
       </c>
       <c r="C184" t="str">
         <f t="array" ref="C184">INDEX(Master_List!$A$2:$C$5000,MATCH(1,(Master_List!$A$2:$A$5000=CHECKLIST!A184)*(Master_List!$B$2:$B$5000=CHECKLIST!B184),0),3)</f>
-        <v>Word Problems</v>
+        <v>Perimeter_Area_Volume</v>
       </c>
       <c r="E184" s="2">
         <v>42156</v>
